--- a/advance.xlsx
+++ b/advance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>пр.Маршала Жукова (посадки нет)</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Комсомольская пл.</t>
+  </si>
+  <si>
+    <t>ст. метро "Кировский завод"</t>
+  </si>
+  <si>
+    <t>ул. Возрождения</t>
   </si>
 </sst>
 </file>
@@ -451,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +541,14 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -611,6 +623,100 @@
       </c>
       <c r="Y2">
         <v>2.0680743243243245</v>
+      </c>
+      <c r="Z2">
+        <v>0.5778812382585965</v>
+      </c>
+      <c r="AA2">
+        <v>9.6653870238775877E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3.35576657140223E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.1995943578869726E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.9826680188070437E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.10067299714206691</v>
+      </c>
+      <c r="F3">
+        <v>2.1572785101871488E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.931686180510739E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.5954641836452458E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.8210565133216542E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.8904766294828051E-2</v>
+      </c>
+      <c r="K3">
+        <v>5.0889646906978885E-2</v>
+      </c>
+      <c r="L3">
+        <v>5.7804001106296674E-2</v>
+      </c>
+      <c r="M3">
+        <v>4.9967733013736519E-2</v>
+      </c>
+      <c r="N3">
+        <v>4.3145570203742975E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.4295196828616203E-2</v>
+      </c>
+      <c r="P3">
+        <v>4.2776804646446003E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.0423158476998242E-2</v>
+      </c>
+      <c r="R3">
+        <v>5.4208536922651422E-2</v>
+      </c>
+      <c r="S3">
+        <v>3.8167235180234141E-2</v>
+      </c>
+      <c r="T3">
+        <v>3.282013459942841E-2</v>
+      </c>
+      <c r="U3">
+        <v>4.1209551027933986E-2</v>
+      </c>
+      <c r="V3">
+        <v>2.9501244583755876E-3</v>
+      </c>
+      <c r="W3">
+        <v>7.1909283672904941E-3</v>
+      </c>
+      <c r="X3">
+        <v>3.0976306812943673E-2</v>
+      </c>
+      <c r="Y3">
+        <v>1.1800497833502352E-2</v>
+      </c>
+      <c r="Z3">
+        <v>7.8270489536277285E-2</v>
+      </c>
+      <c r="AA3">
+        <v>1.3091177284041668E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7.3831304963380431</v>
       </c>
     </row>
   </sheetData>

--- a/advance.xlsx
+++ b/advance.xlsx
@@ -457,178 +457,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.72723492723492755</v>
-      </c>
-      <c r="C2">
-        <v>0.46935020126509497</v>
-      </c>
-      <c r="D2">
-        <v>0.61276276276276276</v>
-      </c>
-      <c r="E2">
-        <v>0.24241164241164245</v>
-      </c>
-      <c r="F2">
-        <v>1.1312543312543313</v>
-      </c>
-      <c r="G2">
-        <v>0.83243243243243292</v>
-      </c>
-      <c r="H2">
-        <v>0.67875259875259908</v>
-      </c>
-      <c r="I2">
-        <v>0.86507684154743025</v>
-      </c>
-      <c r="J2">
-        <v>0.62728320737799437</v>
-      </c>
-      <c r="K2">
-        <v>0.47955346650998831</v>
-      </c>
-      <c r="L2">
-        <v>0.42219061166429589</v>
-      </c>
-      <c r="M2">
-        <v>0.48840131644559687</v>
-      </c>
-      <c r="N2">
-        <v>0.56562716562716564</v>
-      </c>
-      <c r="O2">
-        <v>0.71159546643417626</v>
-      </c>
-      <c r="P2">
-        <v>0.5705032618825725</v>
-      </c>
-      <c r="Q2">
-        <v>0.80216216216216241</v>
-      </c>
-      <c r="R2">
-        <v>0.45019305019305023</v>
-      </c>
-      <c r="S2">
-        <v>0.63940462201331816</v>
-      </c>
-      <c r="T2">
-        <v>0.74357728515031896</v>
-      </c>
-      <c r="U2">
-        <v>0.59220025394522058</v>
-      </c>
-      <c r="V2">
-        <v>8.2722972972972979</v>
-      </c>
-      <c r="W2">
-        <v>3.3937629937629947</v>
-      </c>
-      <c r="X2">
-        <v>0.7878378378378379</v>
-      </c>
-      <c r="Y2">
-        <v>2.0680743243243245</v>
-      </c>
-      <c r="Z2">
-        <v>0.5778812382585965</v>
-      </c>
-      <c r="AA2">
-        <v>9.6653870238775877E-2</v>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -636,86 +636,169 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3.35576657140223E-2</v>
+        <v>0.72723492723492755</v>
       </c>
       <c r="C3">
-        <v>5.1995943578869726E-2</v>
+        <v>0.46935020126509497</v>
       </c>
       <c r="D3">
-        <v>3.9826680188070437E-2</v>
+        <v>0.61276276276276276</v>
       </c>
       <c r="E3">
-        <v>0.10067299714206691</v>
+        <v>0.24241164241164245</v>
       </c>
       <c r="F3">
-        <v>2.1572785101871488E-2</v>
+        <v>1.1312543312543313</v>
       </c>
       <c r="G3">
-        <v>2.931686180510739E-2</v>
+        <v>0.83243243243243292</v>
       </c>
       <c r="H3">
-        <v>3.5954641836452458E-2</v>
+        <v>0.67875259875259908</v>
       </c>
       <c r="I3">
-        <v>2.8210565133216542E-2</v>
+        <v>0.86507684154743025</v>
       </c>
       <c r="J3">
-        <v>3.8904766294828051E-2</v>
+        <v>0.62728320737799437</v>
       </c>
       <c r="K3">
-        <v>5.0889646906978885E-2</v>
+        <v>0.47955346650998831</v>
       </c>
       <c r="L3">
-        <v>5.7804001106296674E-2</v>
+        <v>0.42219061166429589</v>
       </c>
       <c r="M3">
-        <v>4.9967733013736519E-2</v>
+        <v>0.48840131644559687</v>
       </c>
       <c r="N3">
-        <v>4.3145570203742975E-2</v>
+        <v>0.56562716562716564</v>
       </c>
       <c r="O3">
-        <v>3.4295196828616203E-2</v>
+        <v>0.71159546643417626</v>
       </c>
       <c r="P3">
-        <v>4.2776804646446003E-2</v>
+        <v>0.5705032618825725</v>
       </c>
       <c r="Q3">
-        <v>3.0423158476998242E-2</v>
+        <v>0.80216216216216241</v>
       </c>
       <c r="R3">
-        <v>5.4208536922651422E-2</v>
+        <v>0.45019305019305023</v>
       </c>
       <c r="S3">
-        <v>3.8167235180234141E-2</v>
+        <v>0.63940462201331816</v>
       </c>
       <c r="T3">
-        <v>3.282013459942841E-2</v>
+        <v>0.74357728515031896</v>
       </c>
       <c r="U3">
-        <v>4.1209551027933986E-2</v>
+        <v>0.59220025394522058</v>
       </c>
       <c r="V3">
-        <v>2.9501244583755876E-3</v>
+        <v>8.2722972972972979</v>
       </c>
       <c r="W3">
-        <v>7.1909283672904941E-3</v>
+        <v>3.3937629937629947</v>
       </c>
       <c r="X3">
-        <v>3.0976306812943673E-2</v>
+        <v>0.7878378378378379</v>
       </c>
       <c r="Y3">
-        <v>1.1800497833502352E-2</v>
+        <v>2.0680743243243245</v>
       </c>
       <c r="Z3">
-        <v>7.8270489536277285E-2</v>
+        <v>0.5778812382585965</v>
       </c>
       <c r="AA3">
-        <v>1.3091177284041668E-2</v>
+        <v>9.6653870238775877E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3.35576657140223E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.1995943578869726E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.9826680188070437E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.10067299714206691</v>
+      </c>
+      <c r="F4">
+        <v>2.1572785101871488E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.931686180510739E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.5954641836452458E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.8210565133216542E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.8904766294828051E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.0889646906978885E-2</v>
+      </c>
+      <c r="L4">
+        <v>5.7804001106296674E-2</v>
+      </c>
+      <c r="M4">
+        <v>4.9967733013736519E-2</v>
+      </c>
+      <c r="N4">
+        <v>4.3145570203742975E-2</v>
+      </c>
+      <c r="O4">
+        <v>3.4295196828616203E-2</v>
+      </c>
+      <c r="P4">
+        <v>4.2776804646446003E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3.0423158476998242E-2</v>
+      </c>
+      <c r="R4">
+        <v>5.4208536922651422E-2</v>
+      </c>
+      <c r="S4">
+        <v>3.8167235180234141E-2</v>
+      </c>
+      <c r="T4">
+        <v>3.282013459942841E-2</v>
+      </c>
+      <c r="U4">
+        <v>4.1209551027933986E-2</v>
+      </c>
+      <c r="V4">
+        <v>2.9501244583755876E-3</v>
+      </c>
+      <c r="W4">
+        <v>7.1909283672904941E-3</v>
+      </c>
+      <c r="X4">
+        <v>3.0976306812943673E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1.1800497833502352E-2</v>
+      </c>
+      <c r="Z4">
+        <v>7.8270489536277285E-2</v>
+      </c>
+      <c r="AA4">
+        <v>1.3091177284041668E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>7.3831304963380431</v>
       </c>
     </row>
